--- a/inclusion_list_sessions.xlsx
+++ b/inclusion_list_sessions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scripts\nlx_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scripts\nlxnlg_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C664F71A-84FD-4A99-ACFC-A97A56A69BEA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CCA3C6-3CAD-49D4-BE5E-82F68AF1B69E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" tabRatio="306" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" tabRatio="306" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiments" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3946" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3899" uniqueCount="386">
   <si>
     <t>data_dir</t>
   </si>
@@ -1672,6 +1672,15 @@
   </si>
   <si>
     <t>1415,2810</t>
+  </si>
+  <si>
+    <t>270518</t>
+  </si>
+  <si>
+    <t>20-W18_nlg_2018-05-27_16-10-14</t>
+  </si>
+  <si>
+    <t>1,26</t>
   </si>
 </sst>
 </file>
@@ -2115,13 +2124,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI137"/>
+  <dimension ref="A1:AI138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="W101" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="K126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE139" sqref="AE139"/>
+      <selection pane="bottomRight" activeCell="R138" sqref="R138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14025,6 +14034,92 @@
         <v>20</v>
       </c>
     </row>
+    <row r="138" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I138" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J138" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K138" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L138" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="M138" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="N138" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="O138" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P138" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q138" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="R138" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S138" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T138" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U138" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V138" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="W138" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="X138" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y138" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z138" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA138" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="AB138" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:AI119">
     <sortCondition ref="A2:A119"/>
@@ -14038,11 +14133,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A80" sqref="A80:H80"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14076,1956 +14171,6 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D2" s="2">
-        <v>140518</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D3" s="2">
-        <v>140518</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D4" s="2">
-        <v>140518</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D5" s="2">
-        <v>140518</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D6" s="2">
-        <v>140518</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D7" s="2">
-        <v>140518</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>4</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D8" s="2">
-        <v>140518</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>4</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D9" s="2">
-        <v>140518</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>4</v>
-      </c>
-      <c r="H9" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D10" s="2">
-        <v>150518</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <v>3</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D11" s="2">
-        <v>150518</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>4</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D12" s="2">
-        <v>150518</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>2</v>
-      </c>
-      <c r="G12" s="2">
-        <v>3</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D13" s="2">
-        <v>150518</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2</v>
-      </c>
-      <c r="G13" s="2">
-        <v>4</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D14" s="2">
-        <v>160518</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>20</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D15" s="2">
-        <v>160518</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>20</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D16" s="2">
-        <v>160518</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>20</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D17" s="2">
-        <v>160518</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>2</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>20</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D18" s="2">
-        <v>160518</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
-        <v>3</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>20</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D19" s="2">
-        <v>160518</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2">
-        <v>3</v>
-      </c>
-      <c r="H19" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>20</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D20" s="2">
-        <v>160518</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2">
-        <v>3</v>
-      </c>
-      <c r="H20" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D21" s="2">
-        <v>160518</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2">
-        <v>4</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
-        <v>20</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D22" s="2">
-        <v>160518</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2">
-        <v>4</v>
-      </c>
-      <c r="H22" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2">
-        <v>20</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D23" s="2">
-        <v>160518</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2">
-        <v>4</v>
-      </c>
-      <c r="H23" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2">
-        <v>20</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D24" s="2">
-        <v>160518</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2">
-        <v>4</v>
-      </c>
-      <c r="H24" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2">
-        <v>20</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D25" s="2">
-        <v>160518</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2">
-        <v>20</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D26" s="2">
-        <v>160518</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1</v>
-      </c>
-      <c r="G26" s="2">
-        <v>2</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2">
-        <v>20</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D27" s="2">
-        <v>160518</v>
-      </c>
-      <c r="E27" s="2">
-        <v>2</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2">
-        <v>3</v>
-      </c>
-      <c r="H27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2">
-        <v>20</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D28" s="2">
-        <v>160518</v>
-      </c>
-      <c r="E28" s="2">
-        <v>2</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2">
-        <v>3</v>
-      </c>
-      <c r="H28" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2">
-        <v>20</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D29" s="2">
-        <v>160518</v>
-      </c>
-      <c r="E29" s="2">
-        <v>2</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2">
-        <v>4</v>
-      </c>
-      <c r="H29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2">
-        <v>20</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D30" s="2">
-        <v>160518</v>
-      </c>
-      <c r="E30" s="2">
-        <v>2</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2">
-        <v>4</v>
-      </c>
-      <c r="H30" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2">
-        <v>20</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D32" s="2">
-        <v>150518</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-      <c r="F32" s="2">
-        <v>1</v>
-      </c>
-      <c r="G32" s="2">
-        <v>3</v>
-      </c>
-      <c r="H32" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2">
-        <v>20</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D33" s="2">
-        <v>150518</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2">
-        <v>1</v>
-      </c>
-      <c r="G33" s="2">
-        <v>3</v>
-      </c>
-      <c r="H33" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2">
-        <v>20</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D34" s="2">
-        <v>150518</v>
-      </c>
-      <c r="E34" s="2">
-        <v>1</v>
-      </c>
-      <c r="F34" s="2">
-        <v>1</v>
-      </c>
-      <c r="G34" s="2">
-        <v>3</v>
-      </c>
-      <c r="H34" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2">
-        <v>20</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D36" s="2">
-        <v>150518</v>
-      </c>
-      <c r="E36" s="2">
-        <v>1</v>
-      </c>
-      <c r="F36" s="2">
-        <v>1</v>
-      </c>
-      <c r="G36" s="2">
-        <v>4</v>
-      </c>
-      <c r="H36" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2">
-        <v>20</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D37" s="2">
-        <v>150518</v>
-      </c>
-      <c r="E37" s="2">
-        <v>1</v>
-      </c>
-      <c r="F37" s="2">
-        <v>1</v>
-      </c>
-      <c r="G37" s="2">
-        <v>4</v>
-      </c>
-      <c r="H37" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2">
-        <v>20</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D39" s="2">
-        <v>150518</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1</v>
-      </c>
-      <c r="F39" s="2">
-        <v>2</v>
-      </c>
-      <c r="G39" s="2">
-        <v>3</v>
-      </c>
-      <c r="H39" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2">
-        <v>20</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D40" s="2">
-        <v>150518</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2">
-        <v>2</v>
-      </c>
-      <c r="G40" s="2">
-        <v>3</v>
-      </c>
-      <c r="H40" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2">
-        <v>20</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D41" s="2">
-        <v>150518</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2">
-        <v>2</v>
-      </c>
-      <c r="G41" s="2">
-        <v>3</v>
-      </c>
-      <c r="H41" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2">
-        <v>20</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D43" s="2">
-        <v>150518</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1</v>
-      </c>
-      <c r="F43" s="2">
-        <v>2</v>
-      </c>
-      <c r="G43" s="2">
-        <v>4</v>
-      </c>
-      <c r="H43" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2">
-        <v>20</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D44" s="2">
-        <v>150518</v>
-      </c>
-      <c r="E44" s="2">
-        <v>1</v>
-      </c>
-      <c r="F44" s="2">
-        <v>2</v>
-      </c>
-      <c r="G44" s="2">
-        <v>4</v>
-      </c>
-      <c r="H44" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2">
-        <v>21</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D45" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E45" s="2">
-        <v>1</v>
-      </c>
-      <c r="F45" s="2">
-        <v>1</v>
-      </c>
-      <c r="G45" s="2">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2">
-        <v>21</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D46" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E46" s="2">
-        <v>1</v>
-      </c>
-      <c r="F46" s="2">
-        <v>1</v>
-      </c>
-      <c r="G46" s="2">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
-        <v>46</v>
-      </c>
-      <c r="B47" s="2">
-        <v>21</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D47" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E47" s="2">
-        <v>1</v>
-      </c>
-      <c r="F47" s="2">
-        <v>1</v>
-      </c>
-      <c r="G47" s="2">
-        <v>1</v>
-      </c>
-      <c r="H47" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2">
-        <v>21</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D48" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E48" s="2">
-        <v>1</v>
-      </c>
-      <c r="F48" s="2">
-        <v>1</v>
-      </c>
-      <c r="G48" s="2">
-        <v>2</v>
-      </c>
-      <c r="H48" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
-        <v>48</v>
-      </c>
-      <c r="B49" s="2">
-        <v>21</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D49" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E49" s="2">
-        <v>1</v>
-      </c>
-      <c r="F49" s="2">
-        <v>1</v>
-      </c>
-      <c r="G49" s="2">
-        <v>2</v>
-      </c>
-      <c r="H49" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>49</v>
-      </c>
-      <c r="B50" s="2">
-        <v>21</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D50" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E50" s="2">
-        <v>1</v>
-      </c>
-      <c r="F50" s="2">
-        <v>1</v>
-      </c>
-      <c r="G50" s="2">
-        <v>2</v>
-      </c>
-      <c r="H50" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
-        <v>50</v>
-      </c>
-      <c r="B51" s="2">
-        <v>21</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D51" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E51" s="2">
-        <v>1</v>
-      </c>
-      <c r="F51" s="2">
-        <v>1</v>
-      </c>
-      <c r="G51" s="2">
-        <v>3</v>
-      </c>
-      <c r="H51" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
-        <v>51</v>
-      </c>
-      <c r="B52" s="2">
-        <v>21</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D52" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E52" s="2">
-        <v>1</v>
-      </c>
-      <c r="F52" s="2">
-        <v>1</v>
-      </c>
-      <c r="G52" s="2">
-        <v>4</v>
-      </c>
-      <c r="H52" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
-        <v>52</v>
-      </c>
-      <c r="B53" s="2">
-        <v>21</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D53" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E53" s="2">
-        <v>1</v>
-      </c>
-      <c r="F53" s="2">
-        <v>1</v>
-      </c>
-      <c r="G53" s="2">
-        <v>4</v>
-      </c>
-      <c r="H53" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
-        <v>53</v>
-      </c>
-      <c r="B54" s="2">
-        <v>21</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D54" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E54" s="2">
-        <v>1</v>
-      </c>
-      <c r="F54" s="2">
-        <v>2</v>
-      </c>
-      <c r="G54" s="2">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
-        <v>54</v>
-      </c>
-      <c r="B55" s="2">
-        <v>21</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D55" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E55" s="2">
-        <v>1</v>
-      </c>
-      <c r="F55" s="2">
-        <v>2</v>
-      </c>
-      <c r="G55" s="2">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
-        <v>55</v>
-      </c>
-      <c r="B56" s="2">
-        <v>21</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D56" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E56" s="2">
-        <v>1</v>
-      </c>
-      <c r="F56" s="2">
-        <v>2</v>
-      </c>
-      <c r="G56" s="2">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
-        <v>56</v>
-      </c>
-      <c r="B57" s="2">
-        <v>21</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D57" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E57" s="2">
-        <v>1</v>
-      </c>
-      <c r="F57" s="2">
-        <v>2</v>
-      </c>
-      <c r="G57" s="2">
-        <v>2</v>
-      </c>
-      <c r="H57" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
-        <v>57</v>
-      </c>
-      <c r="B58" s="2">
-        <v>21</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D58" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E58" s="2">
-        <v>1</v>
-      </c>
-      <c r="F58" s="2">
-        <v>2</v>
-      </c>
-      <c r="G58" s="2">
-        <v>2</v>
-      </c>
-      <c r="H58" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
-        <v>58</v>
-      </c>
-      <c r="B59" s="2">
-        <v>21</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D59" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E59" s="2">
-        <v>1</v>
-      </c>
-      <c r="F59" s="2">
-        <v>2</v>
-      </c>
-      <c r="G59" s="2">
-        <v>2</v>
-      </c>
-      <c r="H59" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
-        <v>59</v>
-      </c>
-      <c r="B60" s="2">
-        <v>21</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D60" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E60" s="2">
-        <v>1</v>
-      </c>
-      <c r="F60" s="2">
-        <v>2</v>
-      </c>
-      <c r="G60" s="2">
-        <v>3</v>
-      </c>
-      <c r="H60" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
-        <v>60</v>
-      </c>
-      <c r="B61" s="2">
-        <v>21</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D61" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E61" s="2">
-        <v>1</v>
-      </c>
-      <c r="F61" s="2">
-        <v>2</v>
-      </c>
-      <c r="G61" s="2">
-        <v>4</v>
-      </c>
-      <c r="H61" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
-        <v>61</v>
-      </c>
-      <c r="B62" s="2">
-        <v>21</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D62" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E62" s="2">
-        <v>1</v>
-      </c>
-      <c r="F62" s="2">
-        <v>2</v>
-      </c>
-      <c r="G62" s="2">
-        <v>4</v>
-      </c>
-      <c r="H62" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
-        <v>62</v>
-      </c>
-      <c r="B63" s="2">
-        <v>20</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D63" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E63" s="2">
-        <v>1</v>
-      </c>
-      <c r="F63" s="2">
-        <v>1</v>
-      </c>
-      <c r="G63" s="2">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
-        <v>63</v>
-      </c>
-      <c r="B64" s="2">
-        <v>20</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D64" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E64" s="2">
-        <v>1</v>
-      </c>
-      <c r="F64" s="2">
-        <v>1</v>
-      </c>
-      <c r="G64" s="2">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
-        <v>64</v>
-      </c>
-      <c r="B65" s="2">
-        <v>20</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D65" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E65" s="2">
-        <v>1</v>
-      </c>
-      <c r="F65" s="2">
-        <v>1</v>
-      </c>
-      <c r="G65" s="2">
-        <v>1</v>
-      </c>
-      <c r="H65" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
-        <v>65</v>
-      </c>
-      <c r="B66" s="2">
-        <v>20</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D66" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E66" s="2">
-        <v>1</v>
-      </c>
-      <c r="F66" s="2">
-        <v>1</v>
-      </c>
-      <c r="G66" s="2">
-        <v>2</v>
-      </c>
-      <c r="H66" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
-        <v>66</v>
-      </c>
-      <c r="B67" s="2">
-        <v>20</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D67" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E67" s="2">
-        <v>1</v>
-      </c>
-      <c r="F67" s="2">
-        <v>1</v>
-      </c>
-      <c r="G67" s="2">
-        <v>3</v>
-      </c>
-      <c r="H67" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
-        <v>67</v>
-      </c>
-      <c r="B68" s="2">
-        <v>20</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D68" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E68" s="2">
-        <v>1</v>
-      </c>
-      <c r="F68" s="2">
-        <v>1</v>
-      </c>
-      <c r="G68" s="2">
-        <v>3</v>
-      </c>
-      <c r="H68" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
-        <v>68</v>
-      </c>
-      <c r="B69" s="2">
-        <v>20</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D69" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E69" s="2">
-        <v>1</v>
-      </c>
-      <c r="F69" s="2">
-        <v>1</v>
-      </c>
-      <c r="G69" s="2">
-        <v>3</v>
-      </c>
-      <c r="H69" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
-        <v>69</v>
-      </c>
-      <c r="B70" s="2">
-        <v>20</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D70" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E70" s="2">
-        <v>1</v>
-      </c>
-      <c r="F70" s="2">
-        <v>1</v>
-      </c>
-      <c r="G70" s="2">
-        <v>4</v>
-      </c>
-      <c r="H70" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
-        <v>70</v>
-      </c>
-      <c r="B71" s="2">
-        <v>20</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D71" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E71" s="2">
-        <v>1</v>
-      </c>
-      <c r="F71" s="2">
-        <v>1</v>
-      </c>
-      <c r="G71" s="2">
-        <v>4</v>
-      </c>
-      <c r="H71" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
-        <v>71</v>
-      </c>
-      <c r="B72" s="2">
-        <v>20</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D72" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E72" s="2">
-        <v>1</v>
-      </c>
-      <c r="F72" s="2">
-        <v>2</v>
-      </c>
-      <c r="G72" s="2">
-        <v>1</v>
-      </c>
-      <c r="H72" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
-        <v>72</v>
-      </c>
-      <c r="B73" s="2">
-        <v>20</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D73" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E73" s="2">
-        <v>1</v>
-      </c>
-      <c r="F73" s="2">
-        <v>2</v>
-      </c>
-      <c r="G73" s="2">
-        <v>1</v>
-      </c>
-      <c r="H73" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
-        <v>73</v>
-      </c>
-      <c r="B74" s="2">
-        <v>20</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D74" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E74" s="2">
-        <v>1</v>
-      </c>
-      <c r="F74" s="2">
-        <v>2</v>
-      </c>
-      <c r="G74" s="2">
-        <v>1</v>
-      </c>
-      <c r="H74" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
-        <v>74</v>
-      </c>
-      <c r="B75" s="2">
-        <v>20</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D75" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E75" s="2">
-        <v>1</v>
-      </c>
-      <c r="F75" s="2">
-        <v>2</v>
-      </c>
-      <c r="G75" s="2">
-        <v>2</v>
-      </c>
-      <c r="H75" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
-        <v>75</v>
-      </c>
-      <c r="B76" s="2">
-        <v>20</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D76" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E76" s="2">
-        <v>1</v>
-      </c>
-      <c r="F76" s="2">
-        <v>2</v>
-      </c>
-      <c r="G76" s="2">
-        <v>3</v>
-      </c>
-      <c r="H76" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
-        <v>76</v>
-      </c>
-      <c r="B77" s="2">
-        <v>20</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D77" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E77" s="2">
-        <v>1</v>
-      </c>
-      <c r="F77" s="2">
-        <v>2</v>
-      </c>
-      <c r="G77" s="2">
-        <v>3</v>
-      </c>
-      <c r="H77" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
-        <v>77</v>
-      </c>
-      <c r="B78" s="2">
-        <v>20</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D78" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E78" s="2">
-        <v>1</v>
-      </c>
-      <c r="F78" s="2">
-        <v>2</v>
-      </c>
-      <c r="G78" s="2">
-        <v>3</v>
-      </c>
-      <c r="H78" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
-        <v>78</v>
-      </c>
-      <c r="B79" s="2">
-        <v>20</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D79" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E79" s="2">
-        <v>1</v>
-      </c>
-      <c r="F79" s="2">
-        <v>2</v>
-      </c>
-      <c r="G79" s="2">
-        <v>4</v>
-      </c>
-      <c r="H79" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
-        <v>79</v>
-      </c>
-      <c r="B80" s="2">
-        <v>20</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D80" s="2">
-        <v>200518</v>
-      </c>
-      <c r="E80" s="2">
-        <v>1</v>
-      </c>
-      <c r="F80" s="2">
-        <v>2</v>
-      </c>
-      <c r="G80" s="2">
-        <v>4</v>
-      </c>
-      <c r="H80" s="2">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/inclusion_list_sessions.xlsx
+++ b/inclusion_list_sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scripts\nlxnlg_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CCA3C6-3CAD-49D4-BE5E-82F68AF1B69E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5BD147-E904-4CE3-8604-691BA3B7133F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" tabRatio="306" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,7 +523,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3899" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3955" uniqueCount="393">
   <si>
     <t>data_dir</t>
   </si>
@@ -1681,6 +1681,27 @@
   </si>
   <si>
     <t>1,26</t>
+  </si>
+  <si>
+    <t>290518</t>
+  </si>
+  <si>
+    <t>20-W18_nlg_2018-05-29_15-15-56</t>
+  </si>
+  <si>
+    <t>1,102</t>
+  </si>
+  <si>
+    <t>426222657938,426307104870</t>
+  </si>
+  <si>
+    <t>030618</t>
+  </si>
+  <si>
+    <t>20_W18_nlg2018-06-03_13-51-14</t>
+  </si>
+  <si>
+    <t>1,34</t>
   </si>
 </sst>
 </file>
@@ -2124,13 +2145,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI138"/>
+  <dimension ref="A1:AI140"/>
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="K126" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="S126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R138" sqref="R138"/>
+      <selection pane="bottomRight" activeCell="AA141" sqref="AA141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14120,6 +14141,178 @@
         <v>20</v>
       </c>
     </row>
+    <row r="139" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A139" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I139" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J139" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K139" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L139" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="M139" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="N139" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="O139" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P139" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q139" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R139" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S139" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T139" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="U139" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V139" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="W139" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="X139" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y139" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z139" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA139" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB139" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A140" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I140" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J140" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K140" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L140" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="M140" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="N140" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="O140" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P140" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q140" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R140" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S140" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T140" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U140" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V140" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="W140" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="X140" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y140" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z140" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA140" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="AB140" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:AI119">
     <sortCondition ref="A2:A119"/>
@@ -14137,7 +14330,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/inclusion_list_sessions.xlsx
+++ b/inclusion_list_sessions.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scripts\nlxnlg_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555A9B9C-FECD-4F4A-A15E-47EE1ED53F79}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B10670-43A0-48B9-ABB4-BC7D7CC75ACC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" tabRatio="306" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiments" sheetId="1" r:id="rId1"/>
-    <sheet name="Cells" sheetId="3" r:id="rId2"/>
+    <sheet name="Cells" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -14506,10 +14506,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B0604F-4F37-4A96-8B06-7951C1BFFEA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83412335-8C0C-4FBC-9738-0C3FEE48957E}">
   <dimension ref="A1:H941"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A916" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A916" workbookViewId="0">
       <selection activeCell="A941" sqref="A941:H941"/>
     </sheetView>
   </sheetViews>
